--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1821774.186569528</v>
+        <v>1819517.164660446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>108.8074282022286</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>288.418688282137</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>86.4555139881773</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>142.9777266703273</v>
+        <v>28.71125398700422</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>61.8059295846808</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.98934863366274</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>337.455017953679</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.715333384834437</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>136.1286387281321</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.50090852733709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>145.4609348385236</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>43.35869565552184</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>272.1719202248137</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.7691841380791</v>
+        <v>209.0896412396758</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>97.49086871710911</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>148.5873298926974</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,19 +2293,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>1.487334137518332</v>
+        <v>102.4370322846291</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>130.3899231758516</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>173.3368968770836</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249707</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>118.6752559685997</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>25.01141625626377</v>
+        <v>52.70548389690198</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3424,22 +3424,22 @@
         <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>54.48187875623611</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164183</v>
       </c>
       <c r="S37" t="n">
         <v>188.7127700430364</v>
@@ -3478,19 +3478,19 @@
         <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>213.5312736038143</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
         <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124554</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572849</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124638</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
         <v>478.8522906713811</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2587.242597884658</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2368.607930856721</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W2" t="n">
-        <v>2368.607930856721</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>463.2366044859801</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>609.3508327416157</v>
+        <v>1237.984104468506</v>
       </c>
       <c r="D5" t="n">
-        <v>609.3508327416157</v>
+        <v>879.7184058617559</v>
       </c>
       <c r="E5" t="n">
-        <v>609.3508327416157</v>
+        <v>493.9301532635116</v>
       </c>
       <c r="F5" t="n">
-        <v>198.3649279520081</v>
+        <v>82.94424847390405</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>636.2818331563382</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>415.489254012808</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4896,10 +4896,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>369.8327295799423</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>848.0509105096037</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.698881814246</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.249184644075</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.001456870722</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,28 +5118,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2638710736754</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1587.6466134636</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1332.962125257713</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145533</v>
+        <v>1043.544955220752</v>
       </c>
       <c r="X13" t="n">
-        <v>583.552317416536</v>
+        <v>815.5554043227345</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.7597382730058</v>
+        <v>815.5554043227345</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5279,22 +5279,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2006.065164440652</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.993034926781</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O14" t="n">
-        <v>3763.957685256236</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,16 +5306,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,28 +5355,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.8079542252656</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="C16" t="n">
-        <v>539.8079542252656</v>
+        <v>601.8635744322837</v>
       </c>
       <c r="D16" t="n">
-        <v>389.6913148129298</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305367</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305367</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1459.655719134014</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1459.655719134014</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W16" t="n">
-        <v>1170.238549097053</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X16" t="n">
-        <v>942.2489981990356</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="Y16" t="n">
-        <v>721.4564190555053</v>
+        <v>770.7997573601906</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>637.8590697562979</v>
       </c>
       <c r="L17" t="n">
-        <v>1364.144379432265</v>
+        <v>1088.893283004707</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.67628410419</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>509.735988140349</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C19" t="n">
-        <v>340.7998052124422</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D19" t="n">
-        <v>340.7998052124422</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O19" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431757</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.959038351514</v>
+        <v>1475.240411894568</v>
       </c>
       <c r="X19" t="n">
-        <v>872.969487453497</v>
+        <v>1247.250860996551</v>
       </c>
       <c r="Y19" t="n">
-        <v>691.3844529705888</v>
+        <v>1036.049203178697</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,49 +5753,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.8664332433623</v>
+        <v>657.7758834233814</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8664332433623</v>
+        <v>488.8397004954745</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8664332433623</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>391.8664332433623</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>391.8664332433623</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783403</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413796</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433623</v>
+        <v>1060.216927397151</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.8664332433623</v>
+        <v>839.4243482536211</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.866433243363</v>
+        <v>589.4655956925551</v>
       </c>
       <c r="C25" t="n">
-        <v>391.866433243363</v>
+        <v>589.4655956925551</v>
       </c>
       <c r="D25" t="n">
-        <v>391.866433243363</v>
+        <v>589.4655956925551</v>
       </c>
       <c r="E25" t="n">
-        <v>243.9533396609698</v>
+        <v>589.4655956925551</v>
       </c>
       <c r="F25" t="n">
-        <v>97.0633921630594</v>
+        <v>442.5756481946447</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>771.1140605227948</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.866433243363</v>
+        <v>771.1140605227948</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6230,22 +6230,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6263,7 +6263,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.955528730109</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942217</v>
+        <v>561.2936040684044</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>561.2936040684044</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1602.869857567309</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1348.185369361422</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W28" t="n">
-        <v>1058.768199324461</v>
+        <v>964.3709295897386</v>
       </c>
       <c r="X28" t="n">
-        <v>1058.768199324461</v>
+        <v>736.3813786917212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>561.2936040684044</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,46 +6467,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>361.8228945579561</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6655,16 +6655,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208124</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838517</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858344</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423043</v>
+        <v>361.8228945579561</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,19 +6701,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814246</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.941730685239</v>
+        <v>560.0445975595956</v>
       </c>
       <c r="C34" t="n">
-        <v>270.941730685239</v>
+        <v>560.0445975595956</v>
       </c>
       <c r="D34" t="n">
-        <v>120.8250912729033</v>
+        <v>560.0445975595956</v>
       </c>
       <c r="E34" t="n">
-        <v>120.8250912729033</v>
+        <v>560.0445975595956</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,13 +6859,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
@@ -6889,19 +6889,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799874</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593987</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570262</v>
+        <v>1190.475192431383</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590089</v>
+        <v>962.4856415333654</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154787</v>
+        <v>741.6930623898353</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846824</v>
+        <v>1472.533259768725</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518748</v>
+        <v>2006.06516444065</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6965,16 +6965,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7020,10 +7020,10 @@
         <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>388.2302264612122</v>
+        <v>295.7434974606686</v>
       </c>
       <c r="C37" t="n">
-        <v>388.2302264612122</v>
+        <v>240.7112966967937</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612122</v>
+        <v>240.7112966967937</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125619</v>
+        <v>240.7112966967937</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>240.7112966967937</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>240.7112966967937</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308515</v>
       </c>
       <c r="K37" t="n">
         <v>346.7622353152493</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.367726499267</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7117,28 +7117,28 @@
         <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452713</v>
+        <v>1464.626824743985</v>
       </c>
       <c r="U37" t="n">
-        <v>1337.702202297345</v>
+        <v>1176.590882403371</v>
       </c>
       <c r="V37" t="n">
-        <v>1084.084638625201</v>
+        <v>922.973318731227</v>
       </c>
       <c r="W37" t="n">
-        <v>795.7343931219834</v>
+        <v>922.973318731227</v>
       </c>
       <c r="X37" t="n">
-        <v>568.8117667577089</v>
+        <v>696.0506923669526</v>
       </c>
       <c r="Y37" t="n">
-        <v>568.8117667577089</v>
+        <v>476.3250377571654</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7254,13 +7254,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.457836193253</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499225</v>
@@ -7357,7 +7357,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,46 +7409,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,10 +7479,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932531</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160453</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819766</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7594,7 +7594,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7828,16 +7828,16 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>63.01588120402471</v>
       </c>
       <c r="L11" t="n">
-        <v>226.7688596193112</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>83.16722118949463</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="L17" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>246.4545694808451</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>29.61882225792135</v>
+        <v>238.2160185885824</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>73.347316508326</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>426.998343622192</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>85.51392558917581</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.33107165460021</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>140.7509033670893</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>105.2567773626905</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23701,16 +23701,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>14.03991798079923</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.81546921401568</v>
+        <v>9.495012112418951</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>51.12460430110325</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>17.43847836633082</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5384741215099</v>
+        <v>63.58877597439911</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8219150297613</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>45.24775647501116</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696656</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>99.90939738349512</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>120.4096317666675</v>
+        <v>92.71556412602926</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>111.7086870539862</v>
       </c>
       <c r="D37" t="n">
         <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
         <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259153</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>95.29616512143261</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164183</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>71.62430931339303</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>-8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890935.5095408731</v>
+        <v>890935.509540873</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890935.5095408731</v>
+        <v>890935.509540873</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>890935.509540873</v>
+        <v>890935.5095408731</v>
       </c>
     </row>
     <row r="11">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.322953078</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530786</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="I2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="J2" t="n">
         <v>516206.3229530783</v>
@@ -26341,13 +26341,13 @@
         <v>516206.3229530784</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="M2" t="n">
         <v>516599.1617019242</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="O2" t="n">
         <v>533677.1504117844</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696694</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414966</v>
+        <v>36735.10506414964</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918992</v>
@@ -26436,10 +26436,10 @@
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811456</v>
+        <v>18496.05294811452</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955462</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232978</v>
+        <v>-322498.4937232974</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912472</v>
+        <v>267469.3854912471</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912473</v>
+        <v>267469.3854912471</v>
       </c>
       <c r="E6" t="n">
-        <v>-325703.1016132323</v>
+        <v>-325770.297103458</v>
       </c>
       <c r="F6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.1168899486</v>
       </c>
       <c r="G6" t="n">
-        <v>401674.3123801746</v>
+        <v>401607.1168899492</v>
       </c>
       <c r="H6" t="n">
-        <v>401674.3123801744</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="I6" t="n">
-        <v>401674.3123801743</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="J6" t="n">
-        <v>225251.0931875817</v>
+        <v>225183.8976973558</v>
       </c>
       <c r="K6" t="n">
-        <v>401674.3123801748</v>
+        <v>401607.116889949</v>
       </c>
       <c r="L6" t="n">
-        <v>401674.3123801746</v>
+        <v>401607.1168899487</v>
       </c>
       <c r="M6" t="n">
-        <v>271143.4731045859</v>
+        <v>271077.7885326247</v>
       </c>
       <c r="N6" t="n">
-        <v>363003.7210361237</v>
+        <v>363003.7210361233</v>
       </c>
       <c r="O6" t="n">
-        <v>399738.8261002733</v>
+        <v>399738.8261002734</v>
       </c>
       <c r="P6" t="n">
         <v>399738.8261002734</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="N2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="O2" t="n">
-        <v>46.97513661859257</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26768,10 +26768,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018708</v>
+        <v>45.91888133018705</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.60828460674293</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>39.33357018799791</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>125.6900249618416</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>270.8064433504677</v>
+        <v>385.0729160337908</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>163.9037258043564</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>42.48905394114898</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,13 +27907,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.78595076373398</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.1166467971029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>89.58101666090505</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405488</v>
+        <v>1.056255288405493</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>400.2071677594251</v>
       </c>
       <c r="L11" t="n">
-        <v>682.3589740116433</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>622.0883370197212</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789364</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>356.988792271594</v>
       </c>
       <c r="L17" t="n">
-        <v>753.4190306414129</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36130,10 +36130,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>906.0660702419976</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36142,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>754.5075703690641</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>750.4609016724969</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36753,7 +36753,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37069,22 +37069,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>485.2089366502535</v>
+        <v>693.8061329809146</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147171</v>
+        <v>46.63467190147175</v>
       </c>
       <c r="K37" t="n">
         <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818894</v>
       </c>
       <c r="N37" t="n">
         <v>345.9132014559456</v>
@@ -37479,10 +37479,10 @@
         <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.013326433516</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629915</v>
+        <v>79.45049382629918</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>625.6491519212375</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37713,7 +37713,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>965.9194594524188</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>541.104039981508</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
